--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/HAWAII_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/HAWAII_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Tecate</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Dolores Hidalgo</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Huanimaro</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Moroleon</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Buenavista De Cuellar</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -865,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -878,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -891,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>San Martin De Hidalgo</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Capulhuac</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Apatzingan</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Cojumatlan De Regules</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1358,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Esteban Atatlahuca</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Lucas Quiavini</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Santiago Ixtayutla</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Santo Tomas Ocotepec</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1498,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlan</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Los Reyes De Juarez</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1612,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -1625,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -1638,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Mazatlan</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1682,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1713,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1744,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1811,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -1824,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -1837,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -1850,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -1863,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Total</t>
